--- a/00Temporal/operativos/Eloy Alfaro.xlsx
+++ b/00Temporal/operativos/Eloy Alfaro.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>ZONA ELOY ALFARO</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobado por: </t>
+  </si>
+  <si>
+    <t>f inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f fin </t>
+  </si>
+  <si>
+    <t>complejidad</t>
+  </si>
+  <si>
+    <t>ordenanza</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>responsable</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +219,12 @@
       <color rgb="FF000000"/>
       <name val="Garamond"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,6 +480,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1376,7 @@
     <col min="16137" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1363,7 +1388,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1373,7 +1398,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1432,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
@@ -1419,8 +1444,26 @@
       <c r="F5" s="24"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -1445,8 +1488,30 @@
       <c r="H6" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="I6" s="32" t="str">
+        <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C6,"h",":")</f>
+        <v>2017-10-06 15:00</v>
+      </c>
+      <c r="J6" s="32" t="str">
+        <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D6,"h",":")</f>
+        <v>2017-10-06 19:00</v>
+      </c>
+      <c r="K6" s="2">
+        <f>IF(F6="Alta", 1, IF(F6="Medio", 2, IF(F6="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <f>IF(E6="Libadores", 1, IF(E6="Espacio Publico", 2, IF(E6="Escombros", 3, IF(E6="Licenciamiento", 4, 0))))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -1471,8 +1536,30 @@
       <c r="H7" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="I7" s="32" t="str">
+        <f t="shared" ref="I7:I14" si="0">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C7,"h",":")</f>
+        <v>2017-10-09 08:00</v>
+      </c>
+      <c r="J7" s="32" t="str">
+        <f t="shared" ref="J7:J14" si="1">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D7,"h",":")</f>
+        <v>2017-10-09 12:00</v>
+      </c>
+      <c r="K7" s="2">
+        <f>IF(F7="Alta", 1, IF(F7="Medio", 2, IF(F7="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L14" si="2">IF(E7="Libadores", 1, IF(E7="Espacio Publico", 2, IF(E7="Escombros", 3, IF(E7="Licenciamiento", 4, 0))))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="13">
         <v>43023</v>
@@ -1495,8 +1582,30 @@
       <c r="H8" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I8" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-15 08:00</v>
+      </c>
+      <c r="J8" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-15 14:00</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:K14" si="3">IF(F8="Alta", 1, IF(F8="Medio", 2, IF(F8="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>3</v>
       </c>
@@ -1521,8 +1630,30 @@
       <c r="H9" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="I9" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-16 07:00</v>
+      </c>
+      <c r="J9" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-16 15:00</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>4</v>
       </c>
@@ -1547,8 +1678,30 @@
       <c r="H10" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="I10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-18 12:00</v>
+      </c>
+      <c r="J10" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-18 16:00</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>5</v>
       </c>
@@ -1573,8 +1726,30 @@
       <c r="H11" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="I11" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-24 14:00</v>
+      </c>
+      <c r="J11" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-24 18:00</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>6</v>
       </c>
@@ -1599,8 +1774,30 @@
       <c r="H12" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="I12" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-30 13:00</v>
+      </c>
+      <c r="J12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-30 17:00</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
@@ -1612,8 +1809,10 @@
       <c r="H13" s="15">
         <v>5</v>
       </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
@@ -1622,8 +1821,10 @@
       <c r="H14" s="16">
         <v>4</v>
       </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F15" s="2"/>
     </row>
     <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.25">
